--- a/Data Perbandingan Running Time Algoritma A-star.xlsx
+++ b/Data Perbandingan Running Time Algoritma A-star.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dillan\Documents\A.COING RPL\tubes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6DB982-8C0F-412F-92CE-54FC79F8A8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462FB160-DA5A-4F52-B249-230658B573FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1740" windowWidth="17280" windowHeight="9420" xr2:uid="{9DE8F64E-177F-484E-96D5-6A5D3D1D9D49}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9DE8F64E-177F-484E-96D5-6A5D3D1D9D49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,66 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Iteratif</t>
+    <t>waktu_iter</t>
   </si>
   <si>
-    <t>Rekursif</t>
+    <t>data</t>
   </si>
   <si>
-    <t>Running Time</t>
-  </si>
-  <si>
-    <t>Jumlah data</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>0.000070s</t>
-  </si>
-  <si>
-    <t>0.034765s</t>
-  </si>
-  <si>
-    <t>0.034820s</t>
-  </si>
-  <si>
-    <t>0.000068s</t>
-  </si>
-  <si>
-    <t>0.000113s</t>
-  </si>
-  <si>
-    <t>0.000084s</t>
-  </si>
-  <si>
-    <t>0.000767s</t>
-  </si>
-  <si>
-    <t>0.000969s</t>
-  </si>
-  <si>
-    <t>0.001939s</t>
-  </si>
-  <si>
-    <t>0.002135s</t>
-  </si>
-  <si>
-    <t>0.019150s</t>
-  </si>
-  <si>
-    <t>0.025476s</t>
-  </si>
-  <si>
-    <t>0.120445s</t>
-  </si>
-  <si>
-    <t>0.127237s</t>
+    <t>waktu_rek</t>
   </si>
 </sst>
 </file>
@@ -151,9 +100,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -191,7 +140,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -297,7 +246,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,7 +388,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,135 +396,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40368F3E-DA59-471F-9A0D-7C001DA4609D}">
-  <dimension ref="B1:E9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="5" width="17.77734375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>9.7499999999999996E-4</v>
+      </c>
+      <c r="C2">
+        <v>7.7800000000000005E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>200</v>
+      </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.983E-3</v>
       </c>
       <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+        <v>1.815E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>500</v>
+      </c>
       <c r="B4">
-        <v>1</v>
+        <v>6.2680000000000001E-3</v>
       </c>
       <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+        <v>3.5569999999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1000</v>
+      </c>
       <c r="B5">
-        <v>10</v>
+        <v>1.3209E-2</v>
       </c>
       <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+        <v>1.2331E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2000</v>
+      </c>
       <c r="B6">
-        <v>10</v>
+        <v>3.6130000000000002E-2</v>
       </c>
       <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+        <v>3.7039000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5000</v>
+      </c>
       <c r="B7">
-        <v>10</v>
+        <v>0.182835</v>
       </c>
       <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+        <v>0.187025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10000</v>
+      </c>
       <c r="B8">
-        <v>10</v>
+        <v>0.67152999999999996</v>
       </c>
       <c r="C8">
-        <v>200</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
+        <v>0.69439300000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Data Perbandingan Running Time Algoritma A-star.xlsx
+++ b/Data Perbandingan Running Time Algoritma A-star.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dillan\Documents\A.COING RPL\tubes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462FB160-DA5A-4F52-B249-230658B573FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF32C54-2E01-45ED-BF4A-57FC894CB457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9DE8F64E-177F-484E-96D5-6A5D3D1D9D49}"/>
+    <workbookView xWindow="14340" yWindow="1515" windowWidth="14145" windowHeight="11835" xr2:uid="{9DE8F64E-177F-484E-96D5-6A5D3D1D9D49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
